--- a/sse/综合数据分析（天）/重要会议.xlsx
+++ b/sse/综合数据分析（天）/重要会议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
   </bookViews>
   <sheets>
     <sheet name="已举行会议" sheetId="1" r:id="rId1"/>
@@ -2069,8 +2069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.125" defaultRowHeight="13.5"/>
@@ -2179,292 +2179,231 @@
     </row>
     <row r="3" spans="1:17" ht="14.25">
       <c r="A3" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="9" t="s">
-        <v>56</v>
+      <c r="C3" s="6" t="s">
+        <v>29</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="J3" s="2">
-        <v>41893</v>
-      </c>
-      <c r="K3" s="2">
-        <v>41894</v>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="1">
+        <v>42193</v>
+      </c>
+      <c r="K3" s="1">
+        <v>42194</v>
       </c>
       <c r="L3" t="s">
         <v>7</v>
       </c>
       <c r="M3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N3" t="s">
-        <v>67</v>
+        <v>6</v>
+      </c>
+      <c r="N3" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="O3" t="s">
         <v>4</v>
       </c>
-      <c r="P3" s="3" t="s">
-        <v>9</v>
+      <c r="P3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:17" ht="14.25">
-      <c r="A4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>53</v>
+      <c r="A4" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" t="s">
+        <v>144</v>
       </c>
       <c r="C4" t="s">
-        <v>59</v>
+        <v>174</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>58</v>
+        <v>170</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="11">
-        <v>41530</v>
+      <c r="J4" s="2">
+        <v>42318</v>
+      </c>
+      <c r="K4" s="2">
+        <v>42319</v>
       </c>
       <c r="L4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M4" t="s">
-        <v>11</v>
-      </c>
-      <c r="N4" t="s">
-        <v>67</v>
+        <v>173</v>
       </c>
       <c r="O4" t="s">
-        <v>4</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>10</v>
+        <v>171</v>
+      </c>
+      <c r="P4" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="14.25">
       <c r="A5" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="I5" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="J5" s="2">
-        <v>41066</v>
-      </c>
-      <c r="K5" s="6">
-        <v>41067</v>
-      </c>
-      <c r="L5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" s="17" t="s">
-        <v>83</v>
+        <v>163</v>
+      </c>
+      <c r="B5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="M5" t="s">
+        <v>166</v>
       </c>
       <c r="N5" t="s">
-        <v>67</v>
+        <v>167</v>
       </c>
       <c r="O5" t="s">
-        <v>4</v>
-      </c>
-      <c r="P5" t="s">
-        <v>72</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:17" ht="14.25">
-      <c r="A6" s="6" t="s">
-        <v>27</v>
+      <c r="A6" s="25" t="s">
+        <v>105</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>29</v>
+        <v>108</v>
+      </c>
+      <c r="D6" t="s">
+        <v>106</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="1">
-        <v>42193</v>
-      </c>
-      <c r="K6" s="1">
-        <v>42194</v>
+        <v>107</v>
+      </c>
+      <c r="J6" s="2">
+        <v>41932</v>
+      </c>
+      <c r="K6" s="2">
+        <v>41935</v>
       </c>
       <c r="L6" t="s">
-        <v>7</v>
+        <v>118</v>
       </c>
       <c r="M6" t="s">
-        <v>6</v>
+        <v>111</v>
       </c>
       <c r="N6" s="5" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="O6" t="s">
-        <v>4</v>
-      </c>
-      <c r="P6" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>20</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:17" ht="14.25">
       <c r="A7" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B7" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
         <v>53</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>63</v>
+      <c r="C7" t="s">
+        <v>57</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>32</v>
+        <v>56</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6">
-        <v>41835</v>
-      </c>
-      <c r="K7" s="6">
-        <v>41836</v>
+      <c r="J7" s="2">
+        <v>41893</v>
+      </c>
+      <c r="K7" s="2">
+        <v>41894</v>
       </c>
       <c r="L7" t="s">
         <v>7</v>
       </c>
-      <c r="M7" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>69</v>
+      <c r="M7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7" t="s">
+        <v>67</v>
       </c>
       <c r="O7" t="s">
         <v>4</v>
       </c>
-      <c r="P7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>22</v>
+      <c r="P7" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:17" ht="14.25">
-      <c r="A8" s="6" t="s">
-        <v>25</v>
+      <c r="A8" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>60</v>
+        <v>114</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>62</v>
+        <v>119</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6">
-        <v>41359</v>
-      </c>
-      <c r="K8" s="6">
-        <v>41360</v>
-      </c>
       <c r="L8" t="s">
-        <v>7</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>69</v>
+        <v>118</v>
+      </c>
+      <c r="M8" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="N8" s="9" t="s">
+        <v>116</v>
       </c>
       <c r="O8" t="s">
-        <v>4</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>23</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:17" ht="14.25">
       <c r="A9" s="6" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>79</v>
+        <v>32</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="G9" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J9" s="7">
-        <v>40996</v>
-      </c>
-      <c r="K9" s="7">
-        <v>40997</v>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6">
+        <v>41835</v>
+      </c>
+      <c r="K9" s="6">
+        <v>41836</v>
       </c>
       <c r="L9" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="M9" s="5" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="N9" s="5" t="s">
         <v>69</v>
@@ -2472,72 +2411,83 @@
       <c r="O9" t="s">
         <v>4</v>
       </c>
-      <c r="P9" t="s">
-        <v>18</v>
+      <c r="P9" s="5" t="s">
+        <v>16</v>
       </c>
       <c r="Q9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:17" ht="14.25">
-      <c r="A10" s="12" t="s">
-        <v>70</v>
+      <c r="A10" s="6" t="s">
+        <v>38</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>76</v>
+      <c r="C10" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>58</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J10" s="2">
-        <v>40647</v>
+        <v>61</v>
+      </c>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="11">
+        <v>41530</v>
       </c>
       <c r="L10" t="s">
-        <v>17</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>69</v>
+        <v>7</v>
+      </c>
+      <c r="M10" t="s">
+        <v>11</v>
+      </c>
+      <c r="N10" t="s">
+        <v>67</v>
       </c>
       <c r="O10" t="s">
         <v>4</v>
       </c>
-      <c r="P10" t="s">
-        <v>73</v>
+      <c r="P10" s="3" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:17" ht="14.25">
-      <c r="A11" s="16" t="s">
-        <v>77</v>
+      <c r="A11" s="6" t="s">
+        <v>25</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>80</v>
+        <v>60</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>62</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J11" s="2">
-        <v>40282</v>
-      </c>
-      <c r="K11" s="2">
-        <v>40285</v>
+        <v>61</v>
+      </c>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6">
+        <v>41359</v>
+      </c>
+      <c r="K11" s="6">
+        <v>41360</v>
       </c>
       <c r="L11" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="M11" s="5" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="N11" s="5" t="s">
         <v>69</v>
@@ -2545,214 +2495,273 @@
       <c r="O11" t="s">
         <v>4</v>
       </c>
-      <c r="P11" s="17" t="s">
-        <v>81</v>
+      <c r="P11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:17" ht="14.25">
-      <c r="A12" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>74</v>
+      <c r="A12" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>104</v>
       </c>
       <c r="J12" s="2">
-        <v>40709</v>
+        <v>41221</v>
+      </c>
+      <c r="K12" s="2">
+        <v>41227</v>
       </c>
       <c r="L12" t="s">
-        <v>17</v>
+        <v>118</v>
       </c>
       <c r="M12" t="s">
-        <v>84</v>
+        <v>102</v>
+      </c>
+      <c r="N12" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="O12" t="s">
-        <v>4</v>
-      </c>
-      <c r="P12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="18.75">
-      <c r="A13" s="19">
-        <v>39678</v>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="14.25">
+      <c r="A13" s="6" t="s">
+        <v>64</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>53</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="J13" s="18">
-        <v>39688</v>
+        <v>47</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="I13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="2">
+        <v>41066</v>
+      </c>
+      <c r="K13" s="6">
+        <v>41067</v>
       </c>
       <c r="L13" t="s">
         <v>17</v>
       </c>
-      <c r="M13" t="s">
-        <v>88</v>
+      <c r="M13" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="N13" t="s">
+        <v>67</v>
       </c>
       <c r="O13" t="s">
         <v>4</v>
       </c>
-      <c r="P13" s="20" t="s">
-        <v>9</v>
+      <c r="P13" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:17" ht="14.25">
-      <c r="A14" s="22" t="s">
-        <v>93</v>
+      <c r="A14" s="6" t="s">
+        <v>40</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>54</v>
       </c>
       <c r="C14" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J14" s="7">
+        <v>40996</v>
+      </c>
+      <c r="K14" s="7">
+        <v>40997</v>
+      </c>
+      <c r="L14" t="s">
+        <v>17</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O14" t="s">
+        <v>4</v>
+      </c>
+      <c r="P14" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="14.25">
+      <c r="A15" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J15" s="2">
+        <v>40709</v>
+      </c>
+      <c r="L15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M15" t="s">
+        <v>84</v>
+      </c>
+      <c r="O15" t="s">
+        <v>4</v>
+      </c>
+      <c r="P15" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="14.25">
+      <c r="A16" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J16" s="2">
+        <v>40647</v>
+      </c>
+      <c r="L16" t="s">
+        <v>17</v>
+      </c>
+      <c r="M16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="N16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O16" t="s">
+        <v>4</v>
+      </c>
+      <c r="P16" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" ht="14.25">
+      <c r="A17" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J17" s="2">
+        <v>40282</v>
+      </c>
+      <c r="K17" s="2">
+        <v>40285</v>
+      </c>
+      <c r="L17" t="s">
+        <v>17</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N17" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O17" t="s">
+        <v>4</v>
+      </c>
+      <c r="P17" s="17" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" ht="14.25">
+      <c r="A18" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="D18" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E14" s="6" t="s">
+      <c r="E18" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F18" t="s">
         <v>96</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G18" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="I14" s="23" t="s">
+      <c r="I18" s="23" t="s">
         <v>98</v>
       </c>
-      <c r="J14" s="21">
+      <c r="J18" s="21">
         <v>39512</v>
       </c>
-      <c r="K14" s="21">
+      <c r="K18" s="21">
         <v>39525</v>
       </c>
-      <c r="L14" t="s">
+      <c r="L18" t="s">
         <v>117</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M18" t="s">
         <v>91</v>
       </c>
-      <c r="N14" s="5" t="s">
+      <c r="N18" s="5" t="s">
         <v>99</v>
-      </c>
-      <c r="O14" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17" ht="14.25">
-      <c r="J15" s="2">
-        <v>41197</v>
-      </c>
-      <c r="K15" s="2">
-        <v>41203</v>
-      </c>
-      <c r="L15" t="s">
-        <v>118</v>
-      </c>
-      <c r="M15" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="O15" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" ht="14.25">
-      <c r="A16" s="25" t="s">
-        <v>103</v>
-      </c>
-      <c r="D16" s="8" t="s">
-        <v>104</v>
-      </c>
-      <c r="J16" s="2">
-        <v>41221</v>
-      </c>
-      <c r="K16" s="2">
-        <v>41227</v>
-      </c>
-      <c r="L16" t="s">
-        <v>118</v>
-      </c>
-      <c r="M16" t="s">
-        <v>102</v>
-      </c>
-      <c r="N16" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="O16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" ht="14.25">
-      <c r="A17" s="25" t="s">
-        <v>105</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" t="s">
-        <v>106</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="J17" s="2">
-        <v>41932</v>
-      </c>
-      <c r="K17" s="2">
-        <v>41935</v>
-      </c>
-      <c r="L17" t="s">
-        <v>118</v>
-      </c>
-      <c r="M17" t="s">
-        <v>111</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="O17" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" ht="14.25">
-      <c r="A18" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="L18" t="s">
-        <v>118</v>
-      </c>
-      <c r="M18" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="N18" s="5" t="s">
-        <v>110</v>
       </c>
       <c r="O18" t="s">
         <v>100</v>
@@ -2760,14 +2769,11 @@
     </row>
     <row r="19" spans="1:16" ht="14.25">
       <c r="A19" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="D19" s="9" t="s">
-        <v>119</v>
-      </c>
       <c r="E19" s="6" t="s">
         <v>61</v>
       </c>
@@ -2775,76 +2781,70 @@
         <v>118</v>
       </c>
       <c r="M19" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="N19" s="9" t="s">
-        <v>116</v>
+        <v>112</v>
+      </c>
+      <c r="N19" s="5" t="s">
+        <v>110</v>
       </c>
       <c r="O19" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:16" ht="14.25">
-      <c r="A20" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="B20" t="s">
-        <v>144</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>165</v>
+    <row r="20" spans="1:16" ht="18.75">
+      <c r="A20" s="19">
+        <v>39678</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>89</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="L20" s="26" t="s">
-        <v>168</v>
+        <v>74</v>
+      </c>
+      <c r="J20" s="18">
+        <v>39688</v>
+      </c>
+      <c r="L20" t="s">
+        <v>17</v>
       </c>
       <c r="M20" t="s">
-        <v>166</v>
-      </c>
-      <c r="N20" t="s">
-        <v>167</v>
+        <v>88</v>
       </c>
       <c r="O20" t="s">
-        <v>171</v>
+        <v>4</v>
+      </c>
+      <c r="P20" s="20" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:16" ht="14.25">
-      <c r="A21" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="B21" t="s">
-        <v>144</v>
-      </c>
-      <c r="C21" t="s">
-        <v>174</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="E21" s="6" t="s">
-        <v>61</v>
-      </c>
       <c r="J21" s="2">
-        <v>42318</v>
+        <v>41197</v>
       </c>
       <c r="K21" s="2">
-        <v>42319</v>
+        <v>41203</v>
       </c>
       <c r="L21" t="s">
-        <v>173</v>
+        <v>118</v>
+      </c>
+      <c r="M21" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="N21" s="5" t="s">
+        <v>109</v>
       </c>
       <c r="O21" t="s">
-        <v>171</v>
-      </c>
-      <c r="P21" t="s">
-        <v>172</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:Q14">
-    <sortCondition descending="1" ref="M1"/>
+  <sortState ref="A2:Q21">
+    <sortCondition descending="1" ref="A1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2898,7 +2898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>

--- a/sse/综合数据分析（天）/重要会议.xlsx
+++ b/sse/综合数据分析（天）/重要会议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="已举行会议" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="182">
   <si>
     <t>开始时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1489,6 +1489,16 @@
       <t>习近平等</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2015年07月20日 19:11 </t>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中共中央政治局召开会议 决定召开十八届五中全会 中共中央总书记习近平主持会议</t>
   </si>
 </sst>
 </file>
@@ -2069,7 +2079,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A10" sqref="A10:XFD10"/>
     </sheetView>
   </sheetViews>
@@ -2896,10 +2906,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3313,6 +3323,29 @@
         <v>143</v>
       </c>
     </row>
+    <row r="18" spans="1:8" ht="14.25">
+      <c r="A18" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="B18" t="s">
+        <v>180</v>
+      </c>
+      <c r="D18" t="s">
+        <v>155</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G18" t="s">
+        <v>148</v>
+      </c>
+      <c r="H18" s="26" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
